--- a/data/trans_bre/P16B03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B03-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B03-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,71; 19,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,79; 26,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,27; 30,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,87; 27,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; 38,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,27; 45,89</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,58</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,63%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 41,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 43,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,83; 31,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 90,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 88,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,26; 58,45</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,9%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,94; 47,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,13; 80,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,4; 57,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,35; 116,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,8; 408,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,62; 190,86</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,08</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,41%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,7; 24,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,41; 29,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 26,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,07; 37,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,79; 46,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 41,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B03-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 19,67</t>
+          <t>-6,22; 20,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 26,03</t>
+          <t>-7,61; 25,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 30,64</t>
+          <t>-6,27; 34,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 27,07</t>
+          <t>-6,59; 27,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 38,76</t>
+          <t>-7,61; 35,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 45,89</t>
+          <t>-6,27; 51,32</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 41,82</t>
+          <t>1,65; 45,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 43,25</t>
+          <t>1,12; 43,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 31,76</t>
+          <t>-3,95; 36,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 90,53</t>
+          <t>1,94; 100,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 88,41</t>
+          <t>1,3; 86,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 58,45</t>
+          <t>-4,91; 71,94</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 47,14</t>
+          <t>-19,66; 47,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 80,36</t>
+          <t>-3,56; 80,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 57,83</t>
+          <t>-24,72; 59,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 116,46</t>
+          <t>-23,66; 135,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 408,78</t>
+          <t>-3,72; 406,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,62; 190,86</t>
+          <t>-25,97; 340,29</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 24,92</t>
+          <t>2,82; 25,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 29,73</t>
+          <t>2,27; 31,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 26,66</t>
+          <t>-1,2; 25,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 37,69</t>
+          <t>3,25; 40,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 46,47</t>
+          <t>2,49; 50,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 41,98</t>
+          <t>-1,41; 40,85</t>
         </is>
       </c>
     </row>
